--- a/biology/Botanique/Jardin_des_Poètes/Jardin_des_Poètes.xlsx
+++ b/biology/Botanique/Jardin_des_Poètes/Jardin_des_Poètes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_des_Po%C3%A8tes</t>
+          <t>Jardin_des_Poètes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin des Poètes, ou square des Poètes, est un jardin public de Paris situé en bordure du jardin des serres d'Auteuil, dans le 16e arrondissement.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_des_Po%C3%A8tes</t>
+          <t>Jardin_des_Poètes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'entrée principale du jardin est située sur l'avenue du Général-Sarrail[1], qui le délimite à l'Est. Le site est aussi accessible par l'avenue de la Porte-d'Auteuil, qui le borde au Nord.
-Le jardin est contigu à l'Ouest avec le jardin des serres d'Auteuil, auquel il permet d'accéder[1],[2]. En souterrain, à la limite entre les deux jardins, passe un tunnel du boulevard périphérique, dont une bretelle d'accès constitue la limite Sud du jardin.
-Ouvert à des horaires réglementés, le jardin est desservi par la ligne 10 du métro de Paris, à la station Porte d'Auteuil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'entrée principale du jardin est située sur l'avenue du Général-Sarrail, qui le délimite à l'Est. Le site est aussi accessible par l'avenue de la Porte-d'Auteuil, qui le borde au Nord.
+Le jardin est contigu à l'Ouest avec le jardin des serres d'Auteuil, auquel il permet d'accéder,. En souterrain, à la limite entre les deux jardins, passe un tunnel du boulevard périphérique, dont une bretelle d'accès constitue la limite Sud du jardin.
+Ouvert à des horaires réglementés, le jardin est desservi par la ligne 10 du métro de Paris, à la station Porte d'Auteuil.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_des_Po%C3%A8tes</t>
+          <t>Jardin_des_Poètes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin des Poètes est créé par la ville de Paris à l'initiative de Pascal Bonetti, président d'honneur de la Société des poètes français[3]. Il est inauguré le 15 mai 1954[4] par le président du conseil municipal de Paris, Édouard Frédéric-Dupont, le ministre de l'Éducation nationale, André Marie, et Pascal Bonetti.
-Sa particularité est de présenter des plaques, disséminées sur les pelouses, portant chacune quelques vers de poètes français, célèbres ou non, ainsi que des statues et bustes de poètes[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin des Poètes est créé par la ville de Paris à l'initiative de Pascal Bonetti, président d'honneur de la Société des poètes français. Il est inauguré le 15 mai 1954 par le président du conseil municipal de Paris, Édouard Frédéric-Dupont, le ministre de l'Éducation nationale, André Marie, et Pascal Bonetti.
+Sa particularité est de présenter des plaques, disséminées sur les pelouses, portant chacune quelques vers de poètes français, célèbres ou non, ainsi que des statues et bustes de poètes,.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardin_des_Po%C3%A8tes</t>
+          <t>Jardin_des_Poètes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,12 +593,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin a une superficie de 13 400 m2[2].
-Un pin noir d'Autriche planté en 1900 atteint 32 mètres de hauteur. Le square accueille aussi, entre autres, un peuplier blanc et un amandier[2].
-Le site possède le label Écojardin[1].
-Il est équipé d'une aire de jeux pour les enfants, de points d'eau potable et de toilettes publiques[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin a une superficie de 13 400 m2.
+Un pin noir d'Autriche planté en 1900 atteint 32 mètres de hauteur. Le square accueille aussi, entre autres, un peuplier blanc et un amandier.
+Le site possède le label Écojardin.
+Il est équipé d'une aire de jeux pour les enfants, de points d'eau potable et de toilettes publiques.
 </t>
         </is>
       </c>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jardin_des_Po%C3%A8tes</t>
+          <t>Jardin_des_Poètes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,9 +631,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Statues et bustes
-Emplacement des sculptures dans le jardin des Poètes.
-Plaques</t>
+          <t>Statues et bustes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Emplacement des sculptures dans le jardin des Poètes.</t>
         </is>
       </c>
     </row>
@@ -625,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jardin_des_Po%C3%A8tes</t>
+          <t>Jardin_des_Poètes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,10 +666,12 @@
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Claude Eveno dans son ouvrage L'Humeur paysagère en 2015, le choix des vers gravés sur les pierres « est à vous dégoûter de la poésie, tant c'est médiocre et mal choisi »[15].
-Dans son livre Zoner, paru en 2020, Bernard Chambaz note, pour sa part, que le jardin est doté « de bustes du genre accablé (...) et de plaques qui ressemblent à des plaques tombales »[16].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Claude Eveno dans son ouvrage L'Humeur paysagère en 2015, le choix des vers gravés sur les pierres « est à vous dégoûter de la poésie, tant c'est médiocre et mal choisi ».
+Dans son livre Zoner, paru en 2020, Bernard Chambaz note, pour sa part, que le jardin est doté « de bustes du genre accablé (...) et de plaques qui ressemblent à des plaques tombales ».
 </t>
         </is>
       </c>
